--- a/Logging_STOCKHOLMS_LAN/Logging_NORRTALJE/Översikt NORRTÄLJE.xlsx
+++ b/Logging_STOCKHOLMS_LAN/Logging_NORRTALJE/Översikt NORRTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>45118</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>45125</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>45126</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>45127</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>45127</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45128</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45132</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45132</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>

--- a/Logging_STOCKHOLMS_LAN/Logging_NORRTALJE/Översikt NORRTÄLJE.xlsx
+++ b/Logging_STOCKHOLMS_LAN/Logging_NORRTALJE/Översikt NORRTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>45118</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>45125</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>45126</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>45127</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>45127</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45128</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45132</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45132</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>

--- a/Logging_STOCKHOLMS_LAN/Logging_NORRTALJE/Översikt NORRTÄLJE.xlsx
+++ b/Logging_STOCKHOLMS_LAN/Logging_NORRTALJE/Översikt NORRTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>45118</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>45125</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>45126</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>45127</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>45127</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45128</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45132</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45132</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>

--- a/Logging_STOCKHOLMS_LAN/Logging_NORRTALJE/Översikt NORRTÄLJE.xlsx
+++ b/Logging_STOCKHOLMS_LAN/Logging_NORRTALJE/Översikt NORRTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>45118</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>45125</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>45126</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>45127</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>45127</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45128</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45132</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45132</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>

--- a/Logging_STOCKHOLMS_LAN/Logging_NORRTALJE/Översikt NORRTÄLJE.xlsx
+++ b/Logging_STOCKHOLMS_LAN/Logging_NORRTALJE/Översikt NORRTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>45118</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>45125</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>45126</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>45127</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>45127</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45128</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45132</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45132</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>

--- a/Logging_STOCKHOLMS_LAN/Logging_NORRTALJE/Översikt NORRTÄLJE.xlsx
+++ b/Logging_STOCKHOLMS_LAN/Logging_NORRTALJE/Översikt NORRTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>45118</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>45125</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>45126</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>45127</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>45127</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45128</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45132</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45132</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>

--- a/Logging_STOCKHOLMS_LAN/Logging_NORRTALJE/Översikt NORRTÄLJE.xlsx
+++ b/Logging_STOCKHOLMS_LAN/Logging_NORRTALJE/Översikt NORRTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>45118</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>45125</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>45126</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>45127</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>45127</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45128</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45132</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45132</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>

--- a/Logging_STOCKHOLMS_LAN/Logging_NORRTALJE/Översikt NORRTÄLJE.xlsx
+++ b/Logging_STOCKHOLMS_LAN/Logging_NORRTALJE/Översikt NORRTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>45118</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>45125</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>45126</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>45127</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>45127</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45128</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45132</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45132</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>

--- a/Logging_STOCKHOLMS_LAN/Logging_NORRTALJE/Översikt NORRTÄLJE.xlsx
+++ b/Logging_STOCKHOLMS_LAN/Logging_NORRTALJE/Översikt NORRTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>45118</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>45125</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>45126</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>45127</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>45127</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45128</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45132</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45132</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>

--- a/Logging_STOCKHOLMS_LAN/Logging_NORRTALJE/Översikt NORRTÄLJE.xlsx
+++ b/Logging_STOCKHOLMS_LAN/Logging_NORRTALJE/Översikt NORRTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>45118</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>45125</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>45126</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>45127</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>45127</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45128</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45132</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45132</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>

--- a/Logging_STOCKHOLMS_LAN/Logging_NORRTALJE/Översikt NORRTÄLJE.xlsx
+++ b/Logging_STOCKHOLMS_LAN/Logging_NORRTALJE/Översikt NORRTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>45118</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>45125</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>45126</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>45127</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>45127</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45128</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45132</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45132</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>

--- a/Logging_STOCKHOLMS_LAN/Logging_NORRTALJE/Översikt NORRTÄLJE.xlsx
+++ b/Logging_STOCKHOLMS_LAN/Logging_NORRTALJE/Översikt NORRTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>45118</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>45125</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>45126</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>45127</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>45127</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45128</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45132</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45132</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>

--- a/Logging_STOCKHOLMS_LAN/Logging_NORRTALJE/Översikt NORRTÄLJE.xlsx
+++ b/Logging_STOCKHOLMS_LAN/Logging_NORRTALJE/Översikt NORRTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>45118</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>45125</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>45126</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>45127</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>45127</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45128</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45132</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45132</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>

--- a/Logging_STOCKHOLMS_LAN/Logging_NORRTALJE/Översikt NORRTÄLJE.xlsx
+++ b/Logging_STOCKHOLMS_LAN/Logging_NORRTALJE/Översikt NORRTÄLJE.xlsx
@@ -572,7 +572,7 @@
         <v>45111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>45118</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>45125</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>45126</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>45127</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>45127</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45128</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45132</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>45132</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
